--- a/WorkingFolder/Tables/macro_corr_he.xlsx
+++ b/WorkingFolder/Tables/macro_corr_he.xlsx
@@ -14,7 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+  <si>
+    <t>mean:var</t>
+  </si>
+  <si>
+    <t>mean:iqr</t>
+  </si>
+  <si>
+    <t>mean:rvar</t>
+  </si>
   <si>
     <t>median:var</t>
   </si>
@@ -25,19 +34,13 @@
     <t>median:rvar</t>
   </si>
   <si>
-    <t>median:skew</t>
-  </si>
-  <si>
-    <t>mean:var</t>
-  </si>
-  <si>
-    <t>mean:iqr</t>
-  </si>
-  <si>
-    <t>mean:rvar</t>
-  </si>
-  <si>
-    <t>mean:skew</t>
+    <t>-0.24**</t>
+  </si>
+  <si>
+    <t>-0.36***</t>
+  </si>
+  <si>
+    <t>-0.47***</t>
   </si>
   <si>
     <t>-0.15</t>
@@ -46,19 +49,10 @@
     <t>-0.53***</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>-0.24**</t>
-  </si>
-  <si>
-    <t>-0.36***</t>
-  </si>
-  <si>
-    <t>-0.47***</t>
-  </si>
-  <si>
-    <t>0.06</t>
+    <t>-0.44***</t>
+  </si>
+  <si>
+    <t>-0.56***</t>
   </si>
   <si>
     <t>-0.01</t>
@@ -70,13 +64,13 @@
     <t>-0.55***</t>
   </si>
   <si>
-    <t>-0.44***</t>
-  </si>
-  <si>
-    <t>-0.56***</t>
-  </si>
-  <si>
-    <t>0.18</t>
+    <t>-0.37***</t>
+  </si>
+  <si>
+    <t>-0.42***</t>
+  </si>
+  <si>
+    <t>-0.43***</t>
   </si>
   <si>
     <t>-0.09</t>
@@ -88,25 +82,22 @@
     <t>-0.45***</t>
   </si>
   <si>
-    <t>-0.37***</t>
-  </si>
-  <si>
-    <t>-0.42***</t>
-  </si>
-  <si>
-    <t>-0.43***</t>
+    <t>-0.4***</t>
+  </si>
+  <si>
+    <t>-0.41***</t>
   </si>
   <si>
     <t>-0.46***</t>
   </si>
   <si>
-    <t>-0.4***</t>
-  </si>
-  <si>
-    <t>-0.41***</t>
-  </si>
-  <si>
-    <t>-0.13</t>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>-0.38***</t>
+  </si>
+  <si>
+    <t>-0.31**</t>
   </si>
   <si>
     <t>-0.27**</t>
@@ -116,18 +107,6 @@
   </si>
   <si>
     <t>-0.49***</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
-  </si>
-  <si>
-    <t>-0.38***</t>
-  </si>
-  <si>
-    <t>-0.31**</t>
-  </si>
-  <si>
-    <t>-0.18</t>
   </si>
 </sst>
 </file>
@@ -485,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -533,19 +512,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -553,19 +532,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -573,19 +552,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -593,19 +572,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -613,59 +592,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr_he.xlsx
+++ b/WorkingFolder/Tables/macro_corr_he.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>mean:var</t>
   </si>
@@ -34,79 +34,76 @@
     <t>median:rvar</t>
   </si>
   <si>
-    <t>-0.24**</t>
-  </si>
-  <si>
-    <t>-0.36***</t>
+    <t>-0.28**</t>
+  </si>
+  <si>
+    <t>-0.42***</t>
+  </si>
+  <si>
+    <t>-0.48***</t>
+  </si>
+  <si>
+    <t>-0.16</t>
+  </si>
+  <si>
+    <t>-0.53***</t>
+  </si>
+  <si>
+    <t>-0.44***</t>
+  </si>
+  <si>
+    <t>-0.54***</t>
+  </si>
+  <si>
+    <t>-0.51***</t>
+  </si>
+  <si>
+    <t>-0.02</t>
+  </si>
+  <si>
+    <t>-0.39***</t>
+  </si>
+  <si>
+    <t>-0.43***</t>
+  </si>
+  <si>
+    <t>-0.05</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-0.45***</t>
   </si>
   <si>
     <t>-0.47***</t>
   </si>
   <si>
-    <t>-0.15</t>
-  </si>
-  <si>
-    <t>-0.53***</t>
-  </si>
-  <si>
-    <t>-0.44***</t>
-  </si>
-  <si>
-    <t>-0.56***</t>
-  </si>
-  <si>
-    <t>-0.01</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>-0.55***</t>
-  </si>
-  <si>
-    <t>-0.37***</t>
-  </si>
-  <si>
-    <t>-0.42***</t>
-  </si>
-  <si>
-    <t>-0.43***</t>
+    <t>-0.41***</t>
   </si>
   <si>
     <t>-0.09</t>
   </si>
   <si>
-    <t>-0.07</t>
-  </si>
-  <si>
-    <t>-0.45***</t>
-  </si>
-  <si>
-    <t>-0.4***</t>
-  </si>
-  <si>
-    <t>-0.41***</t>
-  </si>
-  <si>
-    <t>-0.46***</t>
-  </si>
-  <si>
-    <t>-0.28**</t>
+    <t>-0.06</t>
+  </si>
+  <si>
+    <t>-0.5***</t>
+  </si>
+  <si>
+    <t>-0.29**</t>
   </si>
   <si>
     <t>-0.38***</t>
   </si>
   <si>
-    <t>-0.31**</t>
-  </si>
-  <si>
-    <t>-0.27**</t>
-  </si>
-  <si>
-    <t>-0.24*</t>
-  </si>
-  <si>
-    <t>-0.49***</t>
+    <t>-0.32***</t>
+  </si>
+  <si>
+    <t>-0.19</t>
+  </si>
+  <si>
+    <t>-0.14</t>
   </si>
 </sst>
 </file>
@@ -498,10 +495,10 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -515,13 +512,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -535,13 +532,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -555,13 +552,13 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -578,10 +575,10 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -595,16 +592,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/WorkingFolder/Tables/macro_corr_he.xlsx
+++ b/WorkingFolder/Tables/macro_corr_he.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>mean:var</t>
   </si>
@@ -25,13 +25,7 @@
     <t>mean:rvar</t>
   </si>
   <si>
-    <t>median:var</t>
-  </si>
-  <si>
-    <t>median:iqr</t>
-  </si>
-  <si>
-    <t>median:rvar</t>
+    <t>mean:skew</t>
   </si>
   <si>
     <t>-0.28**</t>
@@ -40,70 +34,43 @@
     <t>-0.42***</t>
   </si>
   <si>
+    <t>-0.43***</t>
+  </si>
+  <si>
+    <t>-0.31***</t>
+  </si>
+  <si>
+    <t>-0.53***</t>
+  </si>
+  <si>
     <t>-0.48***</t>
   </si>
   <si>
-    <t>-0.16</t>
-  </si>
-  <si>
-    <t>-0.53***</t>
+    <t>-0.41***</t>
+  </si>
+  <si>
+    <t>-0.51***</t>
   </si>
   <si>
     <t>-0.44***</t>
   </si>
   <si>
-    <t>-0.54***</t>
-  </si>
-  <si>
-    <t>-0.51***</t>
+    <t>-0.32***</t>
   </si>
   <si>
     <t>-0.02</t>
   </si>
   <si>
-    <t>-0.39***</t>
-  </si>
-  <si>
-    <t>-0.43***</t>
-  </si>
-  <si>
-    <t>-0.05</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-0.45***</t>
-  </si>
-  <si>
-    <t>-0.47***</t>
-  </si>
-  <si>
-    <t>-0.41***</t>
-  </si>
-  <si>
-    <t>-0.09</t>
-  </si>
-  <si>
-    <t>-0.06</t>
-  </si>
-  <si>
-    <t>-0.5***</t>
-  </si>
-  <si>
-    <t>-0.29**</t>
-  </si>
-  <si>
-    <t>-0.38***</t>
-  </si>
-  <si>
-    <t>-0.32***</t>
-  </si>
-  <si>
-    <t>-0.19</t>
-  </si>
-  <si>
-    <t>-0.14</t>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>-0.01</t>
+  </si>
+  <si>
+    <t>-0.1</t>
+  </si>
+  <si>
+    <t>-0.21*</t>
   </si>
 </sst>
 </file>
@@ -461,147 +428,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1">
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
